--- a/Dataset/ATRAS_TOTAL.xlsx
+++ b/Dataset/ATRAS_TOTAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reyi0\OneDrive\Documentos\Universidad\IABO\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C4BED0-1B7B-4EDB-90FD-47D04A0E0534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7019E6B7-4603-4899-A1F6-C4410B7C05F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC9CF93E-4019-E04C-99EE-2572FBB99FEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="8">
   <si>
     <t>-0.22</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>38.16</t>
+  </si>
+  <si>
+    <t>ATRAS</t>
   </si>
 </sst>
 </file>
@@ -476,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E676D-7A0C-A54D-944C-795C568B7539}">
-  <dimension ref="A1:G911"/>
+  <dimension ref="A1:H911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A551" sqref="A551:G911"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,8 +509,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>-0.22</v>
       </c>
@@ -529,8 +535,11 @@
       <c r="G2" s="4">
         <v>38.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-0.22</v>
       </c>
@@ -552,8 +561,11 @@
       <c r="G3" s="2">
         <v>38.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>-0.28000000000000003</v>
       </c>
@@ -575,8 +587,11 @@
       <c r="G4" s="4">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>-0.26</v>
       </c>
@@ -598,8 +613,11 @@
       <c r="G5" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>-0.31</v>
       </c>
@@ -621,8 +639,11 @@
       <c r="G6" s="4">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>-0.32</v>
       </c>
@@ -644,8 +665,11 @@
       <c r="G7" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>-0.34</v>
       </c>
@@ -667,8 +691,11 @@
       <c r="G8" s="4">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>-0.24</v>
       </c>
@@ -690,8 +717,11 @@
       <c r="G9" s="2">
         <v>38.18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>-0.18</v>
       </c>
@@ -713,8 +743,11 @@
       <c r="G10" s="4">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>-0.03</v>
       </c>
@@ -736,8 +769,11 @@
       <c r="G11" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>-0.09</v>
       </c>
@@ -759,8 +795,11 @@
       <c r="G12" s="4">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>-0.24</v>
       </c>
@@ -782,8 +821,11 @@
       <c r="G13" s="2">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>-0.3</v>
       </c>
@@ -805,8 +847,11 @@
       <c r="G14" s="4">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>-0.27</v>
       </c>
@@ -828,8 +873,11 @@
       <c r="G15" s="2">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>-0.18</v>
       </c>
@@ -851,8 +899,11 @@
       <c r="G16" s="4">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>-0.03</v>
       </c>
@@ -874,8 +925,11 @@
       <c r="G17" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>-0.21</v>
       </c>
@@ -897,8 +951,11 @@
       <c r="G18" s="2">
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>-0.32</v>
       </c>
@@ -920,8 +977,11 @@
       <c r="G19" s="4">
         <v>35.159999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>-0.25</v>
       </c>
@@ -943,8 +1003,11 @@
       <c r="G20" s="2">
         <v>35.229999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>-0.23</v>
       </c>
@@ -966,8 +1029,11 @@
       <c r="G21" s="4">
         <v>35.24</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>-0.31</v>
       </c>
@@ -989,8 +1055,11 @@
       <c r="G22" s="2">
         <v>35.229999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>-0.2</v>
       </c>
@@ -1012,8 +1081,11 @@
       <c r="G23" s="4">
         <v>35.21</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>-0.26</v>
       </c>
@@ -1035,8 +1107,11 @@
       <c r="G24" s="2">
         <v>35.26</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>-0.24</v>
       </c>
@@ -1058,8 +1133,11 @@
       <c r="G25" s="4">
         <v>35.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>-0.05</v>
       </c>
@@ -1081,8 +1159,11 @@
       <c r="G26" s="2">
         <v>35.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>-0.11</v>
       </c>
@@ -1104,8 +1185,11 @@
       <c r="G27" s="4">
         <v>35.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>-0.2</v>
       </c>
@@ -1127,8 +1211,11 @@
       <c r="G28" s="2">
         <v>35.229999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>0.09</v>
       </c>
@@ -1150,8 +1237,11 @@
       <c r="G29" s="4">
         <v>35.22</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1173,8 +1263,11 @@
       <c r="G30" s="2">
         <v>35.22</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>-0.26</v>
       </c>
@@ -1196,8 +1289,11 @@
       <c r="G31" s="4">
         <v>35.24</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.13</v>
       </c>
@@ -1219,8 +1315,11 @@
       <c r="G32" s="2">
         <v>35.21</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>-0.42</v>
       </c>
@@ -1242,8 +1341,11 @@
       <c r="G33" s="4">
         <v>35.22</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.31</v>
       </c>
@@ -1265,8 +1367,11 @@
       <c r="G34" s="2">
         <v>35.22</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -1288,8 +1393,11 @@
       <c r="G35" s="4">
         <v>35.21</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>-0.2</v>
       </c>
@@ -1311,8 +1419,11 @@
       <c r="G36" s="2">
         <v>35.159999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>-0.15</v>
       </c>
@@ -1334,8 +1445,11 @@
       <c r="G37" s="4">
         <v>35.14</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>-0.37</v>
       </c>
@@ -1357,8 +1471,11 @@
       <c r="G38" s="2">
         <v>35.19</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>0.27</v>
       </c>
@@ -1380,8 +1497,11 @@
       <c r="G39" s="4">
         <v>35.159999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>-0.14000000000000001</v>
       </c>
@@ -1403,8 +1523,11 @@
       <c r="G40" s="2">
         <v>35.14</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>-0.38</v>
       </c>
@@ -1426,8 +1549,11 @@
       <c r="G41" s="4">
         <v>35.159999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>-0.34</v>
       </c>
@@ -1449,8 +1575,11 @@
       <c r="G42" s="2">
         <v>35.14</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>-0.2</v>
       </c>
@@ -1472,8 +1601,11 @@
       <c r="G43" s="4">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>-0.15</v>
       </c>
@@ -1495,8 +1627,11 @@
       <c r="G44" s="2">
         <v>35.11</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>0.31</v>
       </c>
@@ -1518,8 +1653,11 @@
       <c r="G45" s="4">
         <v>35.08</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>-0.23</v>
       </c>
@@ -1541,8 +1679,11 @@
       <c r="G46" s="2">
         <v>35.08</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>-0.23</v>
       </c>
@@ -1564,8 +1705,11 @@
       <c r="G47" s="4">
         <v>35.090000000000003</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.04</v>
       </c>
@@ -1587,8 +1731,11 @@
       <c r="G48" s="2">
         <v>35.06</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>-0.11</v>
       </c>
@@ -1610,8 +1757,11 @@
       <c r="G49" s="4">
         <v>35.090000000000003</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>-0.22</v>
       </c>
@@ -1633,8 +1783,11 @@
       <c r="G50" s="2">
         <v>35.08</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>-0.27</v>
       </c>
@@ -1656,8 +1809,11 @@
       <c r="G51" s="4">
         <v>35.049999999999997</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>-0.02</v>
       </c>
@@ -1679,8 +1835,11 @@
       <c r="G52" s="2">
         <v>35.090000000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>-0.19</v>
       </c>
@@ -1702,8 +1861,11 @@
       <c r="G53" s="4">
         <v>35.090000000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>-0.12</v>
       </c>
@@ -1725,8 +1887,11 @@
       <c r="G54" s="2">
         <v>35.07</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>-0.14000000000000001</v>
       </c>
@@ -1748,8 +1913,11 @@
       <c r="G55" s="4">
         <v>35.049999999999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>-0.13</v>
       </c>
@@ -1771,8 +1939,11 @@
       <c r="G56" s="2">
         <v>35.020000000000003</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>-0.09</v>
       </c>
@@ -1794,8 +1965,11 @@
       <c r="G57" s="4">
         <v>35.04</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1817,8 +1991,11 @@
       <c r="G58" s="2">
         <v>35.04</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>-0.21</v>
       </c>
@@ -1840,8 +2017,11 @@
       <c r="G59" s="4">
         <v>35.04</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.31</v>
       </c>
@@ -1863,8 +2043,11 @@
       <c r="G60" s="2">
         <v>35.020000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>-0.24</v>
       </c>
@@ -1886,8 +2069,11 @@
       <c r="G61" s="4">
         <v>35.01</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>-0.02</v>
       </c>
@@ -1909,8 +2095,11 @@
       <c r="G62" s="2">
         <v>35.04</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>-0.11</v>
       </c>
@@ -1932,8 +2121,11 @@
       <c r="G63" s="4">
         <v>35.01</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>-0.18</v>
       </c>
@@ -1955,8 +2147,11 @@
       <c r="G64" s="2">
         <v>35.01</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>-0.34</v>
       </c>
@@ -1978,8 +2173,11 @@
       <c r="G65" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>-0.39</v>
       </c>
@@ -2001,8 +2199,11 @@
       <c r="G66" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>-0.15</v>
       </c>
@@ -2024,8 +2225,11 @@
       <c r="G67" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>-0.55000000000000004</v>
       </c>
@@ -2047,8 +2251,11 @@
       <c r="G68" s="2">
         <v>34.979999999999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>-0.16</v>
       </c>
@@ -2070,8 +2277,11 @@
       <c r="G69" s="4">
         <v>34.979999999999997</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>-0.1</v>
       </c>
@@ -2093,8 +2303,11 @@
       <c r="G70" s="2">
         <v>34.979999999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>-0.2</v>
       </c>
@@ -2116,8 +2329,11 @@
       <c r="G71" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>-0.27</v>
       </c>
@@ -2139,8 +2355,11 @@
       <c r="G72" s="2">
         <v>34.99</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>-0.19</v>
       </c>
@@ -2162,8 +2381,11 @@
       <c r="G73" s="4">
         <v>34.97</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>-0.25</v>
       </c>
@@ -2185,8 +2407,11 @@
       <c r="G74" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>0</v>
       </c>
@@ -2208,8 +2433,11 @@
       <c r="G75" s="4">
         <v>34.96</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>-0.11</v>
       </c>
@@ -2231,8 +2459,11 @@
       <c r="G76" s="2">
         <v>34.96</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>0.1</v>
       </c>
@@ -2254,8 +2485,11 @@
       <c r="G77" s="4">
         <v>34.96</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>-0.1</v>
       </c>
@@ -2277,8 +2511,11 @@
       <c r="G78" s="2">
         <v>34.950000000000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>-0.15</v>
       </c>
@@ -2300,8 +2537,11 @@
       <c r="G79" s="4">
         <v>34.97</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>-0.28000000000000003</v>
       </c>
@@ -2323,8 +2563,11 @@
       <c r="G80" s="2">
         <v>34.93</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>-0.17</v>
       </c>
@@ -2346,8 +2589,11 @@
       <c r="G81" s="4">
         <v>34.93</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>-0.19</v>
       </c>
@@ -2369,8 +2615,11 @@
       <c r="G82" s="2">
         <v>34.92</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>-0.47</v>
       </c>
@@ -2392,8 +2641,11 @@
       <c r="G83" s="4">
         <v>34.92</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>-0.16</v>
       </c>
@@ -2415,8 +2667,11 @@
       <c r="G84" s="2">
         <v>34.93</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>-0.26</v>
       </c>
@@ -2438,8 +2693,11 @@
       <c r="G85" s="4">
         <v>34.880000000000003</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>-0.43</v>
       </c>
@@ -2461,8 +2719,11 @@
       <c r="G86" s="2">
         <v>34.89</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>-0.27</v>
       </c>
@@ -2484,8 +2745,11 @@
       <c r="G87" s="4">
         <v>34.869999999999997</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>-0.2</v>
       </c>
@@ -2507,8 +2771,11 @@
       <c r="G88" s="2">
         <v>34.880000000000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>-0.21</v>
       </c>
@@ -2530,8 +2797,11 @@
       <c r="G89" s="4">
         <v>34.840000000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>-0.19</v>
       </c>
@@ -2553,8 +2823,11 @@
       <c r="G90" s="2">
         <v>34.880000000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>-0.11</v>
       </c>
@@ -2576,8 +2849,11 @@
       <c r="G91" s="4">
         <v>34.840000000000003</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>-0.1</v>
       </c>
@@ -2599,8 +2875,11 @@
       <c r="G92" s="2">
         <v>34.85</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>-0.15</v>
       </c>
@@ -2622,8 +2901,11 @@
       <c r="G93" s="4">
         <v>34.840000000000003</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.1</v>
       </c>
@@ -2645,8 +2927,11 @@
       <c r="G94" s="2">
         <v>34.840000000000003</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>-0.35</v>
       </c>
@@ -2668,8 +2953,11 @@
       <c r="G95" s="4">
         <v>34.81</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>-0.15</v>
       </c>
@@ -2691,8 +2979,11 @@
       <c r="G96" s="2">
         <v>34.83</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>-0.02</v>
       </c>
@@ -2714,8 +3005,11 @@
       <c r="G97" s="4">
         <v>34.82</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>-0.14000000000000001</v>
       </c>
@@ -2737,8 +3031,11 @@
       <c r="G98" s="2">
         <v>34.82</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>-0.2</v>
       </c>
@@ -2760,8 +3057,11 @@
       <c r="G99" s="4">
         <v>34.79</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>-0.11</v>
       </c>
@@ -2783,8 +3083,11 @@
       <c r="G100" s="2">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>-0.18</v>
       </c>
@@ -2806,8 +3109,11 @@
       <c r="G101" s="4">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>-0.14000000000000001</v>
       </c>
@@ -2829,8 +3135,11 @@
       <c r="G102" s="2">
         <v>34.79</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>-0.46</v>
       </c>
@@ -2852,8 +3161,11 @@
       <c r="G103" s="4">
         <v>34.78</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>-0.18</v>
       </c>
@@ -2875,8 +3187,11 @@
       <c r="G104" s="2">
         <v>34.770000000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>0.17</v>
       </c>
@@ -2898,8 +3213,11 @@
       <c r="G105" s="4">
         <v>34.74</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>-0.33</v>
       </c>
@@ -2921,8 +3239,11 @@
       <c r="G106" s="2">
         <v>34.75</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>-0.16</v>
       </c>
@@ -2944,8 +3265,11 @@
       <c r="G107" s="4">
         <v>34.71</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>-0.3</v>
       </c>
@@ -2967,8 +3291,11 @@
       <c r="G108" s="2">
         <v>34.76</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>0</v>
       </c>
@@ -2990,8 +3317,11 @@
       <c r="G109" s="4">
         <v>34.71</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>-0.28000000000000003</v>
       </c>
@@ -3013,8 +3343,11 @@
       <c r="G110" s="2">
         <v>34.729999999999997</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>0.06</v>
       </c>
@@ -3036,8 +3369,11 @@
       <c r="G111" s="4">
         <v>34.74</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>-0.21</v>
       </c>
@@ -3059,8 +3395,11 @@
       <c r="G112" s="2">
         <v>34.71</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>-0.34</v>
       </c>
@@ -3082,8 +3421,11 @@
       <c r="G113" s="4">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>-0.13</v>
       </c>
@@ -3105,8 +3447,11 @@
       <c r="G114" s="2">
         <v>34.68</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>-0.05</v>
       </c>
@@ -3128,8 +3473,11 @@
       <c r="G115" s="4">
         <v>34.65</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>-0.31</v>
       </c>
@@ -3151,8 +3499,11 @@
       <c r="G116" s="2">
         <v>34.65</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>-0.17</v>
       </c>
@@ -3174,8 +3525,11 @@
       <c r="G117" s="4">
         <v>34.619999999999997</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>0.08</v>
       </c>
@@ -3197,8 +3551,11 @@
       <c r="G118" s="2">
         <v>34.64</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>-0.17</v>
       </c>
@@ -3220,8 +3577,11 @@
       <c r="G119" s="4">
         <v>34.61</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>-0.16</v>
       </c>
@@ -3243,8 +3603,11 @@
       <c r="G120" s="2">
         <v>34.61</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>-0.21</v>
       </c>
@@ -3266,8 +3629,11 @@
       <c r="G121" s="4">
         <v>34.61</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>-0.01</v>
       </c>
@@ -3289,8 +3655,11 @@
       <c r="G122" s="2">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>-0.15</v>
       </c>
@@ -3312,8 +3681,11 @@
       <c r="G123" s="4">
         <v>34.630000000000003</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>-0.39</v>
       </c>
@@ -3335,8 +3707,11 @@
       <c r="G124" s="2">
         <v>34.61</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>-0.13</v>
       </c>
@@ -3358,8 +3733,11 @@
       <c r="G125" s="4">
         <v>34.57</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>-0.32</v>
       </c>
@@ -3381,8 +3759,11 @@
       <c r="G126" s="2">
         <v>34.56</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>-0.11</v>
       </c>
@@ -3404,8 +3785,11 @@
       <c r="G127" s="4">
         <v>34.61</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>-0.25</v>
       </c>
@@ -3427,8 +3811,11 @@
       <c r="G128" s="2">
         <v>34.58</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>-0.42</v>
       </c>
@@ -3450,8 +3837,11 @@
       <c r="G129" s="4">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>-0.2</v>
       </c>
@@ -3473,8 +3863,11 @@
       <c r="G130" s="2">
         <v>34.57</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>-0.28000000000000003</v>
       </c>
@@ -3496,8 +3889,11 @@
       <c r="G131" s="4">
         <v>34.57</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>-0.23</v>
       </c>
@@ -3519,8 +3915,11 @@
       <c r="G132" s="2">
         <v>34.58</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>-0.11</v>
       </c>
@@ -3542,8 +3941,11 @@
       <c r="G133" s="4">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>-0.1</v>
       </c>
@@ -3565,8 +3967,11 @@
       <c r="G134" s="2">
         <v>34.58</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>-0.31</v>
       </c>
@@ -3588,8 +3993,11 @@
       <c r="G135" s="4">
         <v>34.61</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>-0.09</v>
       </c>
@@ -3611,8 +4019,11 @@
       <c r="G136" s="2">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>-0.16</v>
       </c>
@@ -3634,8 +4045,11 @@
       <c r="G137" s="4">
         <v>34.590000000000003</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>-0.31</v>
       </c>
@@ -3657,8 +4071,11 @@
       <c r="G138" s="2">
         <v>34.549999999999997</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>-0.43</v>
       </c>
@@ -3680,8 +4097,11 @@
       <c r="G139" s="4">
         <v>34.549999999999997</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>-0.42</v>
       </c>
@@ -3703,8 +4123,11 @@
       <c r="G140" s="2">
         <v>34.57</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>-0.31</v>
       </c>
@@ -3726,8 +4149,11 @@
       <c r="G141" s="4">
         <v>34.54</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>-0.11</v>
       </c>
@@ -3749,8 +4175,11 @@
       <c r="G142" s="2">
         <v>34.54</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>-0.6</v>
       </c>
@@ -3772,8 +4201,11 @@
       <c r="G143" s="4">
         <v>34.56</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>0.05</v>
       </c>
@@ -3795,8 +4227,11 @@
       <c r="G144" s="2">
         <v>34.549999999999997</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>-0.26</v>
       </c>
@@ -3818,8 +4253,11 @@
       <c r="G145" s="4">
         <v>34.54</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>-0.55000000000000004</v>
       </c>
@@ -3841,8 +4279,11 @@
       <c r="G146" s="2">
         <v>34.57</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>0.02</v>
       </c>
@@ -3864,8 +4305,11 @@
       <c r="G147" s="4">
         <v>34.53</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>-0.01</v>
       </c>
@@ -3887,8 +4331,11 @@
       <c r="G148" s="2">
         <v>34.549999999999997</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>-0.12</v>
       </c>
@@ -3910,8 +4357,11 @@
       <c r="G149" s="4">
         <v>34.53</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>-0.31</v>
       </c>
@@ -3933,8 +4383,11 @@
       <c r="G150" s="2">
         <v>34.54</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3956,8 +4409,11 @@
       <c r="G151" s="4">
         <v>34.520000000000003</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>-0.25</v>
       </c>
@@ -3979,8 +4435,11 @@
       <c r="G152" s="2">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>-0.3</v>
       </c>
@@ -4002,8 +4461,11 @@
       <c r="G153" s="4">
         <v>34.46</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -4025,8 +4487,11 @@
       <c r="G154" s="2">
         <v>34.47</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>-0.31</v>
       </c>
@@ -4048,8 +4513,11 @@
       <c r="G155" s="4">
         <v>34.47</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>-0.2</v>
       </c>
@@ -4071,8 +4539,11 @@
       <c r="G156" s="2">
         <v>34.450000000000003</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>-0.31</v>
       </c>
@@ -4094,8 +4565,11 @@
       <c r="G157" s="4">
         <v>34.46</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>-0.22</v>
       </c>
@@ -4117,8 +4591,11 @@
       <c r="G158" s="2">
         <v>34.43</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>-0.19</v>
       </c>
@@ -4140,8 +4617,11 @@
       <c r="G159" s="4">
         <v>34.450000000000003</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>-0.22</v>
       </c>
@@ -4163,8 +4643,11 @@
       <c r="G160" s="2">
         <v>34.46</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>-0.22</v>
       </c>
@@ -4186,8 +4669,11 @@
       <c r="G161" s="2">
         <v>38.159999999999997</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>-0.22</v>
       </c>
@@ -4209,8 +4695,11 @@
       <c r="G162" s="4">
         <v>38.15</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>-0.22</v>
       </c>
@@ -4232,8 +4721,11 @@
       <c r="G163" s="2">
         <v>38.17</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>-0.28000000000000003</v>
       </c>
@@ -4255,8 +4747,11 @@
       <c r="G164" s="4">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>-0.26</v>
       </c>
@@ -4278,8 +4773,11 @@
       <c r="G165" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>-0.31</v>
       </c>
@@ -4301,8 +4799,11 @@
       <c r="G166" s="4">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>-0.32</v>
       </c>
@@ -4324,8 +4825,11 @@
       <c r="G167" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>-0.34</v>
       </c>
@@ -4347,8 +4851,11 @@
       <c r="G168" s="4">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>-0.24</v>
       </c>
@@ -4370,8 +4877,11 @@
       <c r="G169" s="2">
         <v>38.18</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>-0.18</v>
       </c>
@@ -4393,8 +4903,11 @@
       <c r="G170" s="4">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>-0.03</v>
       </c>
@@ -4416,8 +4929,11 @@
       <c r="G171" s="2">
         <v>38.14</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>-0.09</v>
       </c>
@@ -4439,8 +4955,11 @@
       <c r="G172" s="4">
         <v>38.11</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>-0.24</v>
       </c>
@@ -4462,8 +4981,11 @@
       <c r="G173" s="2">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>-0.3</v>
       </c>
@@ -4485,8 +5007,11 @@
       <c r="G174" s="4">
         <v>38.130000000000003</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>-0.27</v>
       </c>
@@ -4508,8 +5033,11 @@
       <c r="G175" s="2">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>-0.18</v>
       </c>
@@ -4531,8 +5059,11 @@
       <c r="G176" s="4">
         <v>38.119999999999997</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>-0.03</v>
       </c>
@@ -4554,8 +5085,11 @@
       <c r="G177" s="2">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>-0.39</v>
       </c>
@@ -4577,8 +5111,11 @@
       <c r="G178" s="6">
         <v>34.409999999999997</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>-0.23</v>
       </c>
@@ -4600,8 +5137,11 @@
       <c r="G179" s="8">
         <v>34.42</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>0</v>
       </c>
@@ -4623,8 +5163,11 @@
       <c r="G180" s="6">
         <v>34.39</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>0.03</v>
       </c>
@@ -4646,8 +5189,11 @@
       <c r="G181" s="8">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>-0.14000000000000001</v>
       </c>
@@ -4669,8 +5215,11 @@
       <c r="G182" s="6">
         <v>34.42</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>-0.33</v>
       </c>
@@ -4692,8 +5241,11 @@
       <c r="G183" s="8">
         <v>34.39</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>-0.17</v>
       </c>
@@ -4715,8 +5267,11 @@
       <c r="G184" s="6">
         <v>34.409999999999997</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>-0.44</v>
       </c>
@@ -4738,8 +5293,11 @@
       <c r="G185" s="8">
         <v>34.39</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>-0.41</v>
       </c>
@@ -4761,8 +5319,11 @@
       <c r="G186" s="6">
         <v>34.380000000000003</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>-0.25</v>
       </c>
@@ -4784,8 +5345,11 @@
       <c r="G187" s="8">
         <v>34.39</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -4807,8 +5371,11 @@
       <c r="G188" s="6">
         <v>34.36</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>-0.26</v>
       </c>
@@ -4830,8 +5397,11 @@
       <c r="G189" s="8">
         <v>34.36</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>-0.05</v>
       </c>
@@ -4853,8 +5423,11 @@
       <c r="G190" s="6">
         <v>34.39</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>-0.06</v>
       </c>
@@ -4876,8 +5449,11 @@
       <c r="G191" s="8">
         <v>34.36</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>0.44</v>
       </c>
@@ -4899,8 +5475,11 @@
       <c r="G192" s="6">
         <v>34.33</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>-0.16</v>
       </c>
@@ -4922,8 +5501,11 @@
       <c r="G193" s="8">
         <v>34.36</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>0.1</v>
       </c>
@@ -4945,8 +5527,11 @@
       <c r="G194" s="6">
         <v>34.32</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>-0.03</v>
       </c>
@@ -4968,8 +5553,11 @@
       <c r="G195" s="8">
         <v>34.340000000000003</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>-0.32</v>
       </c>
@@ -4991,8 +5579,11 @@
       <c r="G196" s="6">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>0.11</v>
       </c>
@@ -5014,8 +5605,11 @@
       <c r="G197" s="8">
         <v>34.31</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -5037,8 +5631,11 @@
       <c r="G198" s="6">
         <v>34.270000000000003</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -5060,8 +5657,11 @@
       <c r="G199" s="8">
         <v>34.28</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>-0.22</v>
       </c>
@@ -5083,8 +5683,11 @@
       <c r="G200" s="6">
         <v>34.25</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>-0.09</v>
       </c>
@@ -5106,8 +5709,11 @@
       <c r="G201" s="8">
         <v>34.26</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>0.03</v>
       </c>
@@ -5129,8 +5735,11 @@
       <c r="G202" s="6">
         <v>34.229999999999997</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>-0.39</v>
       </c>
@@ -5152,8 +5761,11 @@
       <c r="G203" s="8">
         <v>34.25</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>0.06</v>
       </c>
@@ -5175,8 +5787,11 @@
       <c r="G204" s="6">
         <v>34.229999999999997</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>-0.21</v>
       </c>
@@ -5198,8 +5813,11 @@
       <c r="G205" s="8">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>-0.31</v>
       </c>
@@ -5221,8 +5839,11 @@
       <c r="G206" s="6">
         <v>34.25</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>-0.1</v>
       </c>
@@ -5244,8 +5865,11 @@
       <c r="G207" s="8">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -5267,8 +5891,11 @@
       <c r="G208" s="6">
         <v>34.21</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>-0.25</v>
       </c>
@@ -5290,8 +5917,11 @@
       <c r="G209" s="8">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>-0.17</v>
       </c>
@@ -5313,8 +5943,11 @@
       <c r="G210" s="6">
         <v>34.19</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>-0.06</v>
       </c>
@@ -5336,8 +5969,11 @@
       <c r="G211" s="8">
         <v>34.159999999999997</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>-0.16</v>
       </c>
@@ -5359,8 +5995,11 @@
       <c r="G212" s="6">
         <v>34.159999999999997</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>-0.03</v>
       </c>
@@ -5382,8 +6021,11 @@
       <c r="G213" s="8">
         <v>34.119999999999997</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>-0.05</v>
       </c>
@@ -5405,8 +6047,11 @@
       <c r="G214" s="6">
         <v>34.130000000000003</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>-0.26</v>
       </c>
@@ -5428,8 +6073,11 @@
       <c r="G215" s="8">
         <v>34.119999999999997</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>-0.11</v>
       </c>
@@ -5451,8 +6099,11 @@
       <c r="G216" s="6">
         <v>34.119999999999997</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>0.18</v>
       </c>
@@ -5474,8 +6125,11 @@
       <c r="G217" s="8">
         <v>34.049999999999997</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>-0.19</v>
       </c>
@@ -5497,8 +6151,11 @@
       <c r="G218" s="6">
         <v>34.090000000000003</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>-0.17</v>
       </c>
@@ -5520,8 +6177,11 @@
       <c r="G219" s="8">
         <v>34.08</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>-0.16</v>
       </c>
@@ -5543,8 +6203,11 @@
       <c r="G220" s="6">
         <v>34.090000000000003</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>-0.25</v>
       </c>
@@ -5566,8 +6229,11 @@
       <c r="G221" s="8">
         <v>34.049999999999997</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>-0.02</v>
       </c>
@@ -5589,8 +6255,11 @@
       <c r="G222" s="6">
         <v>33.99</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>-0.04</v>
       </c>
@@ -5612,8 +6281,11 @@
       <c r="G223" s="8">
         <v>34.020000000000003</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>-0.12</v>
       </c>
@@ -5635,8 +6307,11 @@
       <c r="G224" s="6">
         <v>34.01</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>-0.41</v>
       </c>
@@ -5658,8 +6333,11 @@
       <c r="G225" s="8">
         <v>33.96</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>-0.23</v>
       </c>
@@ -5681,8 +6359,11 @@
       <c r="G226" s="6">
         <v>33.950000000000003</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>-0.15</v>
       </c>
@@ -5704,8 +6385,11 @@
       <c r="G227" s="8">
         <v>33.979999999999997</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>-0.24</v>
       </c>
@@ -5727,8 +6411,11 @@
       <c r="G228" s="6">
         <v>33.96</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>-0.8</v>
       </c>
@@ -5750,8 +6437,11 @@
       <c r="G229" s="8">
         <v>33.92</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>-0.22</v>
       </c>
@@ -5773,8 +6463,11 @@
       <c r="G230" s="6">
         <v>33.93</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>0.03</v>
       </c>
@@ -5796,8 +6489,11 @@
       <c r="G231" s="8">
         <v>33.97</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>-0.2</v>
       </c>
@@ -5819,8 +6515,11 @@
       <c r="G232" s="6">
         <v>33.89</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>-0.13</v>
       </c>
@@ -5842,8 +6541,11 @@
       <c r="G233" s="8">
         <v>33.92</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>-0.24</v>
       </c>
@@ -5865,8 +6567,11 @@
       <c r="G234" s="6">
         <v>33.92</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>-0.11</v>
       </c>
@@ -5888,8 +6593,11 @@
       <c r="G235" s="8">
         <v>33.840000000000003</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>-0.11</v>
       </c>
@@ -5911,8 +6619,11 @@
       <c r="G236" s="6">
         <v>33.81</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>-0.14000000000000001</v>
       </c>
@@ -5934,8 +6645,11 @@
       <c r="G237" s="8">
         <v>33.840000000000003</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>-0.11</v>
       </c>
@@ -5957,8 +6671,11 @@
       <c r="G238" s="6">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>-0.16</v>
       </c>
@@ -5980,8 +6697,11 @@
       <c r="G239" s="8">
         <v>33.78</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>-0.06</v>
       </c>
@@ -6003,8 +6723,11 @@
       <c r="G240" s="6">
         <v>33.770000000000003</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>-0.17</v>
       </c>
@@ -6026,8 +6749,11 @@
       <c r="G241" s="8">
         <v>33.78</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -6049,8 +6775,11 @@
       <c r="G242" s="6">
         <v>33.770000000000003</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>0.25</v>
       </c>
@@ -6072,8 +6801,11 @@
       <c r="G243" s="8">
         <v>33.74</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>-0.11</v>
       </c>
@@ -6095,8 +6827,11 @@
       <c r="G244" s="6">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>-0.06</v>
       </c>
@@ -6118,8 +6853,11 @@
       <c r="G245" s="8">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>-0.13</v>
       </c>
@@ -6141,8 +6879,11 @@
       <c r="G246" s="6">
         <v>33.68</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>-0.09</v>
       </c>
@@ -6164,8 +6905,11 @@
       <c r="G247" s="8">
         <v>33.67</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>-0.1</v>
       </c>
@@ -6187,8 +6931,11 @@
       <c r="G248" s="6">
         <v>33.659999999999997</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>-0.01</v>
       </c>
@@ -6210,8 +6957,11 @@
       <c r="G249" s="8">
         <v>33.659999999999997</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>-0.13</v>
       </c>
@@ -6233,8 +6983,11 @@
       <c r="G250" s="6">
         <v>33.65</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>-0.17</v>
       </c>
@@ -6256,8 +7009,11 @@
       <c r="G251" s="8">
         <v>33.619999999999997</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -6279,8 +7035,11 @@
       <c r="G252" s="6">
         <v>33.65</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -6302,8 +7061,11 @@
       <c r="G253" s="8">
         <v>33.619999999999997</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -6325,8 +7087,11 @@
       <c r="G254" s="6">
         <v>33.61</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>-0.28999999999999998</v>
       </c>
@@ -6348,8 +7113,11 @@
       <c r="G255" s="8">
         <v>33.590000000000003</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>-0.1</v>
       </c>
@@ -6371,8 +7139,11 @@
       <c r="G256" s="6">
         <v>33.58</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <v>-0.16</v>
       </c>
@@ -6394,8 +7165,11 @@
       <c r="G257" s="8">
         <v>33.56</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>-0.11</v>
       </c>
@@ -6417,8 +7191,11 @@
       <c r="G258" s="6">
         <v>33.56</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -6440,8 +7217,11 @@
       <c r="G259" s="8">
         <v>33.51</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>-0.14000000000000001</v>
       </c>
@@ -6463,8 +7243,11 @@
       <c r="G260" s="6">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>-0.3</v>
       </c>
@@ -6486,8 +7269,11 @@
       <c r="G261" s="8">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>-0.34</v>
       </c>
@@ -6509,8 +7295,11 @@
       <c r="G262" s="6">
         <v>33.46</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>-0.2</v>
       </c>
@@ -6532,8 +7321,11 @@
       <c r="G263" s="8">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>-0.18</v>
       </c>
@@ -6555,8 +7347,11 @@
       <c r="G264" s="6">
         <v>33.46</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>-0.15</v>
       </c>
@@ -6578,8 +7373,11 @@
       <c r="G265" s="8">
         <v>33.43</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>-0.13</v>
       </c>
@@ -6601,8 +7399,11 @@
       <c r="G266" s="6">
         <v>33.46</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>-0.19</v>
       </c>
@@ -6624,8 +7425,11 @@
       <c r="G267" s="8">
         <v>33.39</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>-0.33</v>
       </c>
@@ -6647,8 +7451,11 @@
       <c r="G268" s="6">
         <v>33.39</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>-0.25</v>
       </c>
@@ -6670,8 +7477,11 @@
       <c r="G269" s="8">
         <v>33.409999999999997</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -6693,8 +7503,11 @@
       <c r="G270" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>-0.18</v>
       </c>
@@ -6716,8 +7529,11 @@
       <c r="G271" s="8">
         <v>33.19</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>-0.59</v>
       </c>
@@ -6739,8 +7555,11 @@
       <c r="G272" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>-0.42</v>
       </c>
@@ -6762,8 +7581,11 @@
       <c r="G273" s="8">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <v>-0.38</v>
       </c>
@@ -6785,8 +7607,11 @@
       <c r="G274" s="6">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>0.11</v>
       </c>
@@ -6808,8 +7633,11 @@
       <c r="G275" s="8">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>-0.02</v>
       </c>
@@ -6831,8 +7659,11 @@
       <c r="G276" s="6">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>-0.35</v>
       </c>
@@ -6854,8 +7685,11 @@
       <c r="G277" s="8">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>-0.33</v>
       </c>
@@ -6877,8 +7711,11 @@
       <c r="G278" s="6">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>-0.55000000000000004</v>
       </c>
@@ -6900,8 +7737,11 @@
       <c r="G279" s="8">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <v>-0.64</v>
       </c>
@@ -6923,8 +7763,11 @@
       <c r="G280" s="6">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>-0.5</v>
       </c>
@@ -6946,8 +7789,11 @@
       <c r="G281" s="8">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>-0.52</v>
       </c>
@@ -6969,8 +7815,11 @@
       <c r="G282" s="6">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>-0.28000000000000003</v>
       </c>
@@ -6992,8 +7841,11 @@
       <c r="G283" s="8">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <v>-0.32</v>
       </c>
@@ -7015,8 +7867,11 @@
       <c r="G284" s="6">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>-0.75</v>
       </c>
@@ -7038,8 +7893,11 @@
       <c r="G285" s="8">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
         <v>-0.46</v>
       </c>
@@ -7061,8 +7919,11 @@
       <c r="G286" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>0.43</v>
       </c>
@@ -7084,8 +7945,11 @@
       <c r="G287" s="8">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
         <v>0.21</v>
       </c>
@@ -7107,8 +7971,11 @@
       <c r="G288" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>0.37</v>
       </c>
@@ -7130,8 +7997,11 @@
       <c r="G289" s="8">
         <v>33.229999999999997</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
         <v>-0.06</v>
       </c>
@@ -7153,8 +8023,11 @@
       <c r="G290" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>-0.03</v>
       </c>
@@ -7176,8 +8049,11 @@
       <c r="G291" s="8">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
         <v>-0.42</v>
       </c>
@@ -7199,8 +8075,11 @@
       <c r="G292" s="6">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>-0.2</v>
       </c>
@@ -7222,8 +8101,11 @@
       <c r="G293" s="8">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <v>-0.11</v>
       </c>
@@ -7245,8 +8127,11 @@
       <c r="G294" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>-0.37</v>
       </c>
@@ -7268,8 +8153,11 @@
       <c r="G295" s="8">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -7291,8 +8179,11 @@
       <c r="G296" s="6">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -7314,8 +8205,11 @@
       <c r="G297" s="8">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
         <v>-0.22</v>
       </c>
@@ -7337,8 +8231,11 @@
       <c r="G298" s="6">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>-0.11</v>
       </c>
@@ -7360,8 +8257,11 @@
       <c r="G299" s="8">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -7383,8 +8283,11 @@
       <c r="G300" s="6">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>-0.25</v>
       </c>
@@ -7406,8 +8309,11 @@
       <c r="G301" s="8">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
         <v>-0.24</v>
       </c>
@@ -7429,8 +8335,11 @@
       <c r="G302" s="6">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <v>-0.02</v>
       </c>
@@ -7452,8 +8361,11 @@
       <c r="G303" s="8">
         <v>33.24</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
         <v>-0.06</v>
       </c>
@@ -7475,8 +8387,11 @@
       <c r="G304" s="6">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>0.06</v>
       </c>
@@ -7498,8 +8413,11 @@
       <c r="G305" s="8">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
         <v>-0.11</v>
       </c>
@@ -7521,8 +8439,11 @@
       <c r="G306" s="6">
         <v>33.22</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <v>-0.39</v>
       </c>
@@ -7544,8 +8465,11 @@
       <c r="G307" s="8">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -7567,8 +8491,11 @@
       <c r="G308" s="6">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>-0.32</v>
       </c>
@@ -7590,8 +8517,11 @@
       <c r="G309" s="8">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
         <v>0.06</v>
       </c>
@@ -7613,8 +8543,11 @@
       <c r="G310" s="6">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
         <v>-0.1</v>
       </c>
@@ -7636,8 +8569,11 @@
       <c r="G311" s="8">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <v>-0.37</v>
       </c>
@@ -7659,8 +8595,11 @@
       <c r="G312" s="6">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
         <v>-0.32</v>
       </c>
@@ -7682,8 +8621,11 @@
       <c r="G313" s="8">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
         <v>-0.32</v>
       </c>
@@ -7705,8 +8647,11 @@
       <c r="G314" s="6">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>-0.49</v>
       </c>
@@ -7728,8 +8673,11 @@
       <c r="G315" s="8">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
         <v>-0.04</v>
       </c>
@@ -7751,8 +8699,11 @@
       <c r="G316" s="6">
         <v>33.159999999999997</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
         <v>-0.23</v>
       </c>
@@ -7774,8 +8725,11 @@
       <c r="G317" s="8">
         <v>33.15</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
         <v>-0.54</v>
       </c>
@@ -7797,8 +8751,11 @@
       <c r="G318" s="6">
         <v>33.130000000000003</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="7">
         <v>-0.19</v>
       </c>
@@ -7820,8 +8777,11 @@
       <c r="G319" s="8">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
         <v>-0.33</v>
       </c>
@@ -7843,8 +8803,11 @@
       <c r="G320" s="6">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -7866,8 +8829,11 @@
       <c r="G321" s="8">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
         <v>-0.01</v>
       </c>
@@ -7889,8 +8855,11 @@
       <c r="G322" s="6">
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="7">
         <v>-0.2</v>
       </c>
@@ -7912,8 +8881,11 @@
       <c r="G323" s="8">
         <v>33.159999999999997</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
         <v>-0.19</v>
       </c>
@@ -7935,8 +8907,11 @@
       <c r="G324" s="6">
         <v>33.130000000000003</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
         <v>0.06</v>
       </c>
@@ -7958,8 +8933,11 @@
       <c r="G325" s="8">
         <v>33.15</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
         <v>-0.21</v>
       </c>
@@ -7981,8 +8959,11 @@
       <c r="G326" s="6">
         <v>33.130000000000003</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="7">
         <v>-0.31</v>
       </c>
@@ -8004,8 +8985,11 @@
       <c r="G327" s="8">
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
         <v>-0.27</v>
       </c>
@@ -8027,8 +9011,11 @@
       <c r="G328" s="6">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="7">
         <v>-0.26</v>
       </c>
@@ -8050,8 +9037,11 @@
       <c r="G329" s="8">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
         <v>-0.06</v>
       </c>
@@ -8073,8 +9063,11 @@
       <c r="G330" s="6">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
         <v>-0.05</v>
       </c>
@@ -8096,8 +9089,11 @@
       <c r="G331" s="8">
         <v>33.18</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -8119,8 +9115,11 @@
       <c r="G332" s="6">
         <v>33.130000000000003</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
         <v>-0.56999999999999995</v>
       </c>
@@ -8142,8 +9141,11 @@
       <c r="G333" s="8">
         <v>33.15</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
         <v>-0.4</v>
       </c>
@@ -8165,8 +9167,11 @@
       <c r="G334" s="6">
         <v>33.15</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
         <v>-0.15</v>
       </c>
@@ -8188,8 +9193,11 @@
       <c r="G335" s="8">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
         <v>0.11</v>
       </c>
@@ -8211,8 +9219,11 @@
       <c r="G336" s="6">
         <v>33.14</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="7">
         <v>0.11</v>
       </c>
@@ -8234,8 +9245,11 @@
       <c r="G337" s="8">
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
         <v>-0.09</v>
       </c>
@@ -8257,8 +9271,11 @@
       <c r="G338" s="6">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="7">
         <v>-0.04</v>
       </c>
@@ -8280,8 +9297,11 @@
       <c r="G339" s="8">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
         <v>-0.42</v>
       </c>
@@ -8303,8 +9323,11 @@
       <c r="G340" s="6">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
         <v>-0.24</v>
       </c>
@@ -8326,8 +9349,11 @@
       <c r="G341" s="8">
         <v>33.06</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
         <v>-0.15</v>
       </c>
@@ -8349,8 +9375,11 @@
       <c r="G342" s="6">
         <v>33.07</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="7">
         <v>-0.22</v>
       </c>
@@ -8372,8 +9401,11 @@
       <c r="G343" s="8">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -8395,8 +9427,11 @@
       <c r="G344" s="6">
         <v>33.11</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
         <v>-0.15</v>
       </c>
@@ -8418,8 +9453,11 @@
       <c r="G345" s="8">
         <v>33.090000000000003</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
         <v>0.04</v>
       </c>
@@ -8441,8 +9479,11 @@
       <c r="G346" s="6">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="7">
         <v>0.01</v>
       </c>
@@ -8464,8 +9505,11 @@
       <c r="G347" s="8">
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
         <v>-0.16</v>
       </c>
@@ -8487,8 +9531,11 @@
       <c r="G348" s="6">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="7">
         <v>-0.36</v>
       </c>
@@ -8510,8 +9557,11 @@
       <c r="G349" s="8">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
         <v>-0.05</v>
       </c>
@@ -8533,8 +9583,11 @@
       <c r="G350" s="6">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="7">
         <v>-0.19</v>
       </c>
@@ -8556,8 +9609,11 @@
       <c r="G351" s="8">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
         <v>-0.13</v>
       </c>
@@ -8579,8 +9635,11 @@
       <c r="G352" s="6">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="7">
         <v>-0.2</v>
       </c>
@@ -8602,8 +9661,11 @@
       <c r="G353" s="8">
         <v>33.07</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
         <v>-0.34</v>
       </c>
@@ -8625,8 +9687,11 @@
       <c r="G354" s="6">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="7">
         <v>-0.34</v>
       </c>
@@ -8648,8 +9713,11 @@
       <c r="G355" s="8">
         <v>33.049999999999997</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
         <v>-0.38</v>
       </c>
@@ -8671,8 +9739,11 @@
       <c r="G356" s="6">
         <v>33.03</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="7">
         <v>-0.22</v>
       </c>
@@ -8694,8 +9765,11 @@
       <c r="G357" s="8">
         <v>33.049999999999997</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
         <v>-0.01</v>
       </c>
@@ -8717,8 +9791,11 @@
       <c r="G358" s="6">
         <v>33.08</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="7">
         <v>-0.24</v>
       </c>
@@ -8740,8 +9817,11 @@
       <c r="G359" s="8">
         <v>33.049999999999997</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
         <v>-0.24</v>
       </c>
@@ -8763,8 +9843,11 @@
       <c r="G360" s="6">
         <v>33.04</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="7">
         <v>-0.18</v>
       </c>
@@ -8786,8 +9869,11 @@
       <c r="G361" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
         <v>-0.28999999999999998</v>
       </c>
@@ -8809,8 +9895,11 @@
       <c r="G362" s="6">
         <v>33.020000000000003</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="7">
         <v>-0.11</v>
       </c>
@@ -8832,8 +9921,11 @@
       <c r="G363" s="8">
         <v>33.04</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
         <v>-0.21</v>
       </c>
@@ -8855,8 +9947,11 @@
       <c r="G364" s="6">
         <v>33.020000000000003</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="7">
         <v>-0.12</v>
       </c>
@@ -8878,8 +9973,11 @@
       <c r="G365" s="8">
         <v>33.01</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
         <v>-0.24</v>
       </c>
@@ -8901,8 +9999,11 @@
       <c r="G366" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="7">
         <v>-0.41</v>
       </c>
@@ -8924,8 +10025,11 @@
       <c r="G367" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
         <v>-0.39</v>
       </c>
@@ -8947,8 +10051,11 @@
       <c r="G368" s="6">
         <v>33.020000000000003</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="7">
         <v>-0.17</v>
       </c>
@@ -8970,8 +10077,11 @@
       <c r="G369" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
         <v>-0.46</v>
       </c>
@@ -8993,8 +10103,11 @@
       <c r="G370" s="6">
         <v>32.99</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
         <v>-0.11</v>
       </c>
@@ -9016,8 +10129,11 @@
       <c r="G371" s="8">
         <v>32.979999999999997</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
         <v>-0.35</v>
       </c>
@@ -9039,8 +10155,11 @@
       <c r="G372" s="6">
         <v>32.97</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
         <v>-0.15</v>
       </c>
@@ -9062,8 +10181,11 @@
       <c r="G373" s="8">
         <v>32.979999999999997</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
         <v>-0.28999999999999998</v>
       </c>
@@ -9085,8 +10207,11 @@
       <c r="G374" s="6">
         <v>32.92</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
         <v>-0.05</v>
       </c>
@@ -9108,8 +10233,11 @@
       <c r="G375" s="8">
         <v>32.950000000000003</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
         <v>-0.09</v>
       </c>
@@ -9131,8 +10259,11 @@
       <c r="G376" s="6">
         <v>32.950000000000003</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
         <v>-0.39</v>
       </c>
@@ -9154,8 +10285,11 @@
       <c r="G377" s="8">
         <v>32.96</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
         <v>-0.11</v>
       </c>
@@ -9177,8 +10311,11 @@
       <c r="G378" s="6">
         <v>32.99</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="7">
         <v>-0.18</v>
       </c>
@@ -9200,8 +10337,11 @@
       <c r="G379" s="8">
         <v>32.950000000000003</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
         <v>-0.15</v>
       </c>
@@ -9223,8 +10363,11 @@
       <c r="G380" s="6">
         <v>32.950000000000003</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
         <v>-0.28999999999999998</v>
       </c>
@@ -9246,8 +10389,11 @@
       <c r="G381" s="8">
         <v>32.96</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
         <v>-0.5</v>
       </c>
@@ -9269,8 +10415,11 @@
       <c r="G382" s="6">
         <v>32.950000000000003</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="7">
         <v>-0.38</v>
       </c>
@@ -9292,8 +10441,11 @@
       <c r="G383" s="8">
         <v>32.97</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
         <v>-0.33</v>
       </c>
@@ -9315,8 +10467,11 @@
       <c r="G384" s="6">
         <v>32.950000000000003</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="7">
         <v>-0.21</v>
       </c>
@@ -9338,8 +10493,11 @@
       <c r="G385" s="8">
         <v>32.96</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
         <v>-0.12</v>
       </c>
@@ -9361,8 +10519,11 @@
       <c r="G386" s="6">
         <v>32.96</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="7">
         <v>-0.05</v>
       </c>
@@ -9384,8 +10545,11 @@
       <c r="G387" s="8">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
         <v>-0.19</v>
       </c>
@@ -9407,8 +10571,11 @@
       <c r="G388" s="6">
         <v>32.96</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="7">
         <v>-0.16</v>
       </c>
@@ -9430,8 +10597,11 @@
       <c r="G389" s="8">
         <v>32.950000000000003</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
         <v>-0.15</v>
       </c>
@@ -9453,8 +10623,11 @@
       <c r="G390" s="6">
         <v>32.950000000000003</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="7">
         <v>-0.31</v>
       </c>
@@ -9476,8 +10649,11 @@
       <c r="G391" s="8">
         <v>32.909999999999997</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
         <v>0.02</v>
       </c>
@@ -9499,8 +10675,11 @@
       <c r="G392" s="6">
         <v>32.94</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H392" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="7">
         <v>-0.01</v>
       </c>
@@ -9522,8 +10701,11 @@
       <c r="G393" s="8">
         <v>32.92</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
         <v>-0.06</v>
       </c>
@@ -9545,8 +10727,11 @@
       <c r="G394" s="6">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H394" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="7">
         <v>0.1</v>
       </c>
@@ -9568,8 +10753,11 @@
       <c r="G395" s="8">
         <v>32.89</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
         <v>-0.06</v>
       </c>
@@ -9591,8 +10779,11 @@
       <c r="G396" s="6">
         <v>32.89</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="7">
         <v>-0.21</v>
       </c>
@@ -9614,8 +10805,11 @@
       <c r="G397" s="8">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
         <v>-0.11</v>
       </c>
@@ -9637,8 +10831,11 @@
       <c r="G398" s="6">
         <v>32.880000000000003</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H398" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="7">
         <v>0.22</v>
       </c>
@@ -9660,8 +10857,11 @@
       <c r="G399" s="8">
         <v>32.909999999999997</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H399" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
         <v>-0.11</v>
       </c>
@@ -9683,8 +10883,11 @@
       <c r="G400" s="6">
         <v>32.86</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="7">
         <v>-0.11</v>
       </c>
@@ -9706,8 +10909,11 @@
       <c r="G401" s="8">
         <v>32.89</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
         <v>-0.34</v>
       </c>
@@ -9729,8 +10935,11 @@
       <c r="G402" s="6">
         <v>32.880000000000003</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="7">
         <v>-0.26</v>
       </c>
@@ -9752,8 +10961,11 @@
       <c r="G403" s="8">
         <v>32.869999999999997</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
         <v>-0.2</v>
       </c>
@@ -9775,8 +10987,11 @@
       <c r="G404" s="6">
         <v>32.869999999999997</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H404" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="7">
         <v>-0.06</v>
       </c>
@@ -9798,8 +11013,11 @@
       <c r="G405" s="8">
         <v>32.880000000000003</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
         <v>-0.21</v>
       </c>
@@ -9821,8 +11039,11 @@
       <c r="G406" s="6">
         <v>32.85</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H406" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="7">
         <v>-0.14000000000000001</v>
       </c>
@@ -9844,8 +11065,11 @@
       <c r="G407" s="8">
         <v>32.86</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H407" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
         <v>-0.13</v>
       </c>
@@ -9867,8 +11091,11 @@
       <c r="G408" s="6">
         <v>32.840000000000003</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="7">
         <v>0.08</v>
       </c>
@@ -9890,8 +11117,11 @@
       <c r="G409" s="8">
         <v>32.85</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
         <v>-0.14000000000000001</v>
       </c>
@@ -9913,8 +11143,11 @@
       <c r="G410" s="6">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H410" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="7">
         <v>-0.1</v>
       </c>
@@ -9936,8 +11169,11 @@
       <c r="G411" s="8">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H411" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
         <v>-0.13</v>
       </c>
@@ -9959,8 +11195,11 @@
       <c r="G412" s="6">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H412" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="7">
         <v>-0.19</v>
       </c>
@@ -9982,8 +11221,11 @@
       <c r="G413" s="8">
         <v>32.78</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
         <v>-0.21</v>
       </c>
@@ -10005,8 +11247,11 @@
       <c r="G414" s="6">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H414" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="7">
         <v>-0.35</v>
       </c>
@@ -10028,8 +11273,11 @@
       <c r="G415" s="8">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H415" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -10051,8 +11299,11 @@
       <c r="G416" s="6">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="7">
         <v>0.01</v>
       </c>
@@ -10074,8 +11325,11 @@
       <c r="G417" s="8">
         <v>32.78</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
         <v>-0.04</v>
       </c>
@@ -10097,8 +11351,11 @@
       <c r="G418" s="6">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H418" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
         <v>-0.1</v>
       </c>
@@ -10120,8 +11377,11 @@
       <c r="G419" s="6">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H419" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
         <v>-0.17</v>
       </c>
@@ -10143,8 +11403,11 @@
       <c r="G420" s="8">
         <v>32.76</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <v>-0.21</v>
       </c>
@@ -10166,8 +11429,11 @@
       <c r="G421" s="6">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H421" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="7">
         <v>-0.08</v>
       </c>
@@ -10189,8 +11455,11 @@
       <c r="G422" s="8">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <v>-0.31</v>
       </c>
@@ -10212,8 +11481,11 @@
       <c r="G423" s="6">
         <v>32.76</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H423" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="7">
         <v>-0.11</v>
       </c>
@@ -10235,8 +11507,11 @@
       <c r="G424" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H424" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
         <v>-0.2</v>
       </c>
@@ -10258,8 +11533,11 @@
       <c r="G425" s="6">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H425" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="7">
         <v>-0.43</v>
       </c>
@@ -10281,8 +11559,11 @@
       <c r="G426" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H426" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
         <v>-0.1</v>
       </c>
@@ -10304,8 +11585,11 @@
       <c r="G427" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H427" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="7">
         <v>-0.22</v>
       </c>
@@ -10327,8 +11611,11 @@
       <c r="G428" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H428" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
         <v>-1.1599999999999999</v>
       </c>
@@ -10350,8 +11637,11 @@
       <c r="G429" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H429" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -10373,8 +11663,11 @@
       <c r="G430" s="8">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H430" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <v>-0.17</v>
       </c>
@@ -10396,8 +11689,11 @@
       <c r="G431" s="6">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H431" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="7">
         <v>0.01</v>
       </c>
@@ -10419,8 +11715,11 @@
       <c r="G432" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H432" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <v>0.01</v>
       </c>
@@ -10442,8 +11741,11 @@
       <c r="G433" s="6">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H433" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="7">
         <v>0.21</v>
       </c>
@@ -10465,8 +11767,11 @@
       <c r="G434" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H434" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
         <v>0</v>
       </c>
@@ -10488,8 +11793,11 @@
       <c r="G435" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H435" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="7">
         <v>0.16</v>
       </c>
@@ -10511,8 +11819,11 @@
       <c r="G436" s="8">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H436" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
         <v>0.1</v>
       </c>
@@ -10534,8 +11845,11 @@
       <c r="G437" s="6">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H437" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="7">
         <v>-0.2</v>
       </c>
@@ -10557,8 +11871,11 @@
       <c r="G438" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
         <v>-0.28999999999999998</v>
       </c>
@@ -10580,8 +11897,11 @@
       <c r="G439" s="6">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H439" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="7">
         <v>-0.25</v>
       </c>
@@ -10603,8 +11923,11 @@
       <c r="G440" s="8">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H440" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
         <v>-0.35</v>
       </c>
@@ -10626,8 +11949,11 @@
       <c r="G441" s="6">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H441" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="7">
         <v>-0.1</v>
       </c>
@@ -10649,8 +11975,11 @@
       <c r="G442" s="8">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H442" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
         <v>-0.41</v>
       </c>
@@ -10672,8 +12001,11 @@
       <c r="G443" s="6">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H443" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="7">
         <v>-0.16</v>
       </c>
@@ -10695,8 +12027,11 @@
       <c r="G444" s="8">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H444" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
         <v>-0.34</v>
       </c>
@@ -10718,8 +12053,11 @@
       <c r="G445" s="6">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H445" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="7">
         <v>-0.25</v>
       </c>
@@ -10741,8 +12079,11 @@
       <c r="G446" s="8">
         <v>32.68</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
         <v>-0.32</v>
       </c>
@@ -10764,8 +12105,11 @@
       <c r="G447" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H447" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="7">
         <v>-0.69</v>
       </c>
@@ -10787,8 +12131,11 @@
       <c r="G448" s="8">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H448" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <v>-0.57999999999999996</v>
       </c>
@@ -10810,8 +12157,11 @@
       <c r="G449" s="6">
         <v>32.68</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H449" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="7">
         <v>-0.34</v>
       </c>
@@ -10833,8 +12183,11 @@
       <c r="G450" s="8">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H450" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
         <v>-0.52</v>
       </c>
@@ -10856,8 +12209,11 @@
       <c r="G451" s="6">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="7">
         <v>-0.49</v>
       </c>
@@ -10879,8 +12235,11 @@
       <c r="G452" s="8">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H452" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
         <v>-0.4</v>
       </c>
@@ -10902,8 +12261,11 @@
       <c r="G453" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H453" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="7">
         <v>0</v>
       </c>
@@ -10925,8 +12287,11 @@
       <c r="G454" s="8">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H454" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
         <v>0.01</v>
       </c>
@@ -10948,8 +12313,11 @@
       <c r="G455" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H455" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="7">
         <v>-1.05</v>
       </c>
@@ -10971,8 +12339,11 @@
       <c r="G456" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H456" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
         <v>0.17</v>
       </c>
@@ -10994,8 +12365,11 @@
       <c r="G457" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H457" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="7">
         <v>-0.43</v>
       </c>
@@ -11017,8 +12391,11 @@
       <c r="G458" s="8">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H458" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
         <v>-0.36</v>
       </c>
@@ -11040,8 +12417,11 @@
       <c r="G459" s="6">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H459" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="7">
         <v>-0.12</v>
       </c>
@@ -11063,8 +12443,11 @@
       <c r="G460" s="8">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H460" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <v>-0.23</v>
       </c>
@@ -11086,8 +12469,11 @@
       <c r="G461" s="6">
         <v>32.68</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="7">
         <v>0.01</v>
       </c>
@@ -11109,8 +12495,11 @@
       <c r="G462" s="8">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H462" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <v>-0.05</v>
       </c>
@@ -11132,8 +12521,11 @@
       <c r="G463" s="6">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H463" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="7">
         <v>0.05</v>
       </c>
@@ -11155,8 +12547,11 @@
       <c r="G464" s="8">
         <v>32.68</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H464" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
         <v>-0.09</v>
       </c>
@@ -11178,8 +12573,11 @@
       <c r="G465" s="6">
         <v>32.65</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="7">
         <v>-0.3</v>
       </c>
@@ -11201,8 +12599,11 @@
       <c r="G466" s="8">
         <v>32.68</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H466" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <v>-0.28999999999999998</v>
       </c>
@@ -11224,8 +12625,11 @@
       <c r="G467" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H467" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="7">
         <v>-0.18</v>
       </c>
@@ -11247,8 +12651,11 @@
       <c r="G468" s="8">
         <v>32.68</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H468" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
         <v>-0.38</v>
       </c>
@@ -11270,8 +12677,11 @@
       <c r="G469" s="6">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="7">
         <v>-0.08</v>
       </c>
@@ -11293,8 +12703,11 @@
       <c r="G470" s="8">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H470" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
         <v>-0.31</v>
       </c>
@@ -11316,8 +12729,11 @@
       <c r="G471" s="6">
         <v>32.68</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H471" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="7">
         <v>-0.08</v>
       </c>
@@ -11339,8 +12755,11 @@
       <c r="G472" s="8">
         <v>32.68</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H472" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
         <v>-0.3</v>
       </c>
@@ -11362,8 +12781,11 @@
       <c r="G473" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H473" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="7">
         <v>-0.21</v>
       </c>
@@ -11385,8 +12807,11 @@
       <c r="G474" s="8">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H474" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
         <v>-0.11</v>
       </c>
@@ -11408,8 +12833,11 @@
       <c r="G475" s="6">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H475" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="7">
         <v>-0.3</v>
       </c>
@@ -11431,8 +12859,11 @@
       <c r="G476" s="8">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
         <v>-0.16</v>
       </c>
@@ -11454,8 +12885,11 @@
       <c r="G477" s="6">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H477" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="7">
         <v>-0.11</v>
       </c>
@@ -11477,8 +12911,11 @@
       <c r="G478" s="8">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H478" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
         <v>-0.31</v>
       </c>
@@ -11500,8 +12937,11 @@
       <c r="G479" s="6">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H479" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="7">
         <v>-0.19</v>
       </c>
@@ -11523,8 +12963,11 @@
       <c r="G480" s="8">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H480" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
         <v>-0.42</v>
       </c>
@@ -11546,8 +12989,11 @@
       <c r="G481" s="6">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H481" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="7">
         <v>-0.16</v>
       </c>
@@ -11569,8 +13015,11 @@
       <c r="G482" s="8">
         <v>32.67</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H482" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
         <v>-0.41</v>
       </c>
@@ -11592,8 +13041,11 @@
       <c r="G483" s="6">
         <v>32.67</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H483" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="7">
         <v>-0.82</v>
       </c>
@@ -11615,8 +13067,11 @@
       <c r="G484" s="8">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H484" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
         <v>-0.87</v>
       </c>
@@ -11638,8 +13093,11 @@
       <c r="G485" s="6">
         <v>32.67</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H485" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="7">
         <v>-0.21</v>
       </c>
@@ -11661,8 +13119,11 @@
       <c r="G486" s="8">
         <v>32.65</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H486" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
         <v>-0.15</v>
       </c>
@@ -11684,8 +13145,11 @@
       <c r="G487" s="6">
         <v>32.65</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H487" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="7">
         <v>-0.35</v>
       </c>
@@ -11707,8 +13171,11 @@
       <c r="G488" s="8">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -11730,8 +13197,11 @@
       <c r="G489" s="6">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H489" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="7">
         <v>-0.25</v>
       </c>
@@ -11753,8 +13223,11 @@
       <c r="G490" s="8">
         <v>32.65</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H490" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <v>-0.59</v>
       </c>
@@ -11776,8 +13249,11 @@
       <c r="G491" s="6">
         <v>32.65</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H491" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="7">
         <v>-0.2</v>
       </c>
@@ -11799,8 +13275,11 @@
       <c r="G492" s="8">
         <v>32.67</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
         <v>-0.17</v>
       </c>
@@ -11822,8 +13301,11 @@
       <c r="G493" s="6">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H493" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="7">
         <v>-0.2</v>
       </c>
@@ -11845,8 +13327,11 @@
       <c r="G494" s="8">
         <v>32.65</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H494" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
         <v>-0.41</v>
       </c>
@@ -11868,8 +13353,11 @@
       <c r="G495" s="6">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
         <v>-0.22</v>
       </c>
@@ -11891,8 +13379,11 @@
       <c r="G496" s="8">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H496" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <v>-0.11</v>
       </c>
@@ -11914,8 +13405,11 @@
       <c r="G497" s="6">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="7">
         <v>0.06</v>
       </c>
@@ -11937,8 +13431,11 @@
       <c r="G498" s="8">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H498" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
         <v>-0.17</v>
       </c>
@@ -11960,8 +13457,11 @@
       <c r="G499" s="6">
         <v>32.630000000000003</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H499" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="7">
         <v>-0.36</v>
       </c>
@@ -11983,8 +13483,11 @@
       <c r="G500" s="8">
         <v>32.630000000000003</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H500" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <v>-0.67</v>
       </c>
@@ -12006,8 +13509,11 @@
       <c r="G501" s="6">
         <v>32.630000000000003</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H501" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="7">
         <v>-0.3</v>
       </c>
@@ -12029,8 +13535,11 @@
       <c r="G502" s="8">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H502" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
         <v>-0.17</v>
       </c>
@@ -12052,8 +13561,11 @@
       <c r="G503" s="6">
         <v>32.68</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H503" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="7">
         <v>-0.42</v>
       </c>
@@ -12075,8 +13587,11 @@
       <c r="G504" s="8">
         <v>32.630000000000003</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H504" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
         <v>-0.16</v>
       </c>
@@ -12098,8 +13613,11 @@
       <c r="G505" s="6">
         <v>32.67</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H505" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="7">
         <v>-0.08</v>
       </c>
@@ -12121,8 +13639,11 @@
       <c r="G506" s="8">
         <v>32.61</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H506" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
         <v>-0.34</v>
       </c>
@@ -12144,8 +13665,11 @@
       <c r="G507" s="6">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H507" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="7">
         <v>-0.12</v>
       </c>
@@ -12167,8 +13691,11 @@
       <c r="G508" s="8">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H508" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
         <v>-0.22</v>
       </c>
@@ -12190,8 +13717,11 @@
       <c r="G509" s="6">
         <v>32.619999999999997</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H509" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="7">
         <v>-0.26</v>
       </c>
@@ -12213,8 +13743,11 @@
       <c r="G510" s="8">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H510" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
         <v>-0.23</v>
       </c>
@@ -12236,8 +13769,11 @@
       <c r="G511" s="6">
         <v>32.67</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H511" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -12259,8 +13795,11 @@
       <c r="G512" s="8">
         <v>32.630000000000003</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H512" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
         <v>-0.06</v>
       </c>
@@ -12282,8 +13821,11 @@
       <c r="G513" s="6">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H513" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="7">
         <v>-0.08</v>
       </c>
@@ -12305,8 +13847,11 @@
       <c r="G514" s="8">
         <v>32.630000000000003</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H514" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
         <v>0.09</v>
       </c>
@@ -12328,8 +13873,11 @@
       <c r="G515" s="6">
         <v>32.65</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H515" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="7">
         <v>-0.6</v>
       </c>
@@ -12351,8 +13899,11 @@
       <c r="G516" s="8">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H516" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
         <v>-0.04</v>
       </c>
@@ -12374,8 +13925,11 @@
       <c r="G517" s="6">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H517" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="7">
         <v>-0.22</v>
       </c>
@@ -12397,8 +13951,11 @@
       <c r="G518" s="8">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H518" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -12420,8 +13977,11 @@
       <c r="G519" s="6">
         <v>32.67</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H519" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="7">
         <v>-0.18</v>
       </c>
@@ -12443,8 +14003,11 @@
       <c r="G520" s="8">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H520" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
         <v>-0.42</v>
       </c>
@@ -12466,8 +14029,11 @@
       <c r="G521" s="6">
         <v>32.630000000000003</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H521" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="7">
         <v>-0.13</v>
       </c>
@@ -12489,8 +14055,11 @@
       <c r="G522" s="8">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H522" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
         <v>0.04</v>
       </c>
@@ -12512,8 +14081,11 @@
       <c r="G523" s="6">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H523" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="7">
         <v>-0.19</v>
       </c>
@@ -12535,8 +14107,11 @@
       <c r="G524" s="8">
         <v>32.67</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H524" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
         <v>-0.17</v>
       </c>
@@ -12558,8 +14133,11 @@
       <c r="G525" s="6">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H525" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="7">
         <v>-0.34</v>
       </c>
@@ -12581,8 +14159,11 @@
       <c r="G526" s="8">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H526" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
         <v>0.02</v>
       </c>
@@ -12604,8 +14185,11 @@
       <c r="G527" s="6">
         <v>32.68</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H527" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="7">
         <v>0.06</v>
       </c>
@@ -12627,8 +14211,11 @@
       <c r="G528" s="8">
         <v>32.64</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H528" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
         <v>-0.28000000000000003</v>
       </c>
@@ -12650,8 +14237,11 @@
       <c r="G529" s="6">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H529" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
         <v>-0.2</v>
       </c>
@@ -12673,8 +14263,11 @@
       <c r="G530" s="6">
         <v>32.659999999999997</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H530" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="7">
         <v>-0.19</v>
       </c>
@@ -12696,8 +14289,11 @@
       <c r="G531" s="8">
         <v>32.69</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H531" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="5">
         <v>-0.27</v>
       </c>
@@ -12719,8 +14315,11 @@
       <c r="G532" s="6">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H532" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="7">
         <v>-0.28000000000000003</v>
       </c>
@@ -12742,8 +14341,11 @@
       <c r="G533" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H533" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="5">
         <v>-0.42</v>
       </c>
@@ -12765,8 +14367,11 @@
       <c r="G534" s="6">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H534" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="7">
         <v>0.1</v>
       </c>
@@ -12788,8 +14393,11 @@
       <c r="G535" s="8">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H535" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
@@ -12811,8 +14419,11 @@
       <c r="G536" s="6">
         <v>32.71</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H536" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="7">
         <v>-0.36</v>
       </c>
@@ -12834,8 +14445,11 @@
       <c r="G537" s="8">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H537" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="5">
         <v>-0.16</v>
       </c>
@@ -12857,8 +14471,11 @@
       <c r="G538" s="6">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H538" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="7">
         <v>-0.23</v>
       </c>
@@ -12880,8 +14497,11 @@
       <c r="G539" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H539" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
         <v>-0.62</v>
       </c>
@@ -12903,8 +14523,11 @@
       <c r="G540" s="6">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H540" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="7">
         <v>-0.32</v>
       </c>
@@ -12926,8 +14549,11 @@
       <c r="G541" s="8">
         <v>32.729999999999997</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H541" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
         <v>-0.47</v>
       </c>
@@ -12949,8 +14575,11 @@
       <c r="G542" s="6">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H542" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="7">
         <v>-0.2</v>
       </c>
@@ -12972,8 +14601,11 @@
       <c r="G543" s="8">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H543" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="5">
         <v>-0.1</v>
       </c>
@@ -12995,8 +14627,11 @@
       <c r="G544" s="6">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H544" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="7">
         <v>-0.46</v>
       </c>
@@ -13018,8 +14653,11 @@
       <c r="G545" s="8">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H545" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="5">
         <v>-0.53</v>
       </c>
@@ -13041,8 +14679,11 @@
       <c r="G546" s="6">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H546" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="7">
         <v>-0.48</v>
       </c>
@@ -13064,8 +14705,11 @@
       <c r="G547" s="8">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H547" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
         <v>-0.48</v>
       </c>
@@ -13087,8 +14731,11 @@
       <c r="G548" s="6">
         <v>32.79</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H548" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="7">
         <v>-0.22</v>
       </c>
@@ -13110,8 +14757,11 @@
       <c r="G549" s="8">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H549" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="5">
         <v>-0.75</v>
       </c>
@@ -13133,8 +14783,11 @@
       <c r="G550" s="6">
         <v>32.840000000000003</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H550" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="7"/>
       <c r="B551" s="8"/>
       <c r="C551" s="8"/>
@@ -13143,7 +14796,7 @@
       <c r="F551" s="8"/>
       <c r="G551" s="8"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="5"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -13152,7 +14805,7 @@
       <c r="F552" s="6"/>
       <c r="G552" s="6"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="7"/>
       <c r="B553" s="8"/>
       <c r="C553" s="8"/>
@@ -13161,7 +14814,7 @@
       <c r="F553" s="8"/>
       <c r="G553" s="8"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="5"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
@@ -13170,7 +14823,7 @@
       <c r="F554" s="6"/>
       <c r="G554" s="6"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="7"/>
       <c r="B555" s="8"/>
       <c r="C555" s="8"/>
@@ -13179,7 +14832,7 @@
       <c r="F555" s="8"/>
       <c r="G555" s="8"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="5"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
@@ -13188,7 +14841,7 @@
       <c r="F556" s="6"/>
       <c r="G556" s="6"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="7"/>
       <c r="B557" s="8"/>
       <c r="C557" s="8"/>
@@ -13197,7 +14850,7 @@
       <c r="F557" s="8"/>
       <c r="G557" s="8"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="5"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
@@ -13206,7 +14859,7 @@
       <c r="F558" s="6"/>
       <c r="G558" s="6"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="7"/>
       <c r="B559" s="8"/>
       <c r="C559" s="8"/>
@@ -13215,7 +14868,7 @@
       <c r="F559" s="8"/>
       <c r="G559" s="8"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="5"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
